--- a/forwardprimer-v3_39.xlsx
+++ b/forwardprimer-v3_39.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_39" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F3649-AAGACTCGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTCGTATCGTCGGCAGCGTC</t>
+    <t>F3649-ATCCACATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCACATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F3650-GTCTAGCACT</t>
+    <t>F3650-TCAGACTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGACTGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>F3651-TCATCGTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCGTCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>F3652-CAACGTCGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACGTCGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>F3653-TTCGTGACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTGACACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>F3654-GACTGAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTGAGACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>F3655-CTCTCAACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCAACTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>F3656-ATCTAGGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTAGGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>F3657-GTTCCAAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCAAGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>F3658-AACGTAGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTAGAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>F3659-TCGTCTGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCTGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>F3660-ACCTACGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTACGACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>F3661-ATGTCCTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTCCTCGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>F3662-GTCGATCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCGATCACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F3663-TGAGTGTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTGTCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F3664-AGAAGTCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGTCATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F3665-TGCTGACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTGACGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>F3666-TACGAAGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGAAGACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F3667-GTCAACAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAACAAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F3668-AGTTGCTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGCTGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F3669-GATGACACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGACACGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F3670-ACCTAGACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTAGACATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F3671-TGGAAGAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGAAGAGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F3672-AGGTGTACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGTACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F3673-CCTAGTACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGTACTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F3674-GAAGGTTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGTTGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F3675-CCTTCTTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCTTCCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F3676-ACAGCACATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGCACATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F3677-GACGATCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACGATCTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F3678-CATGTCTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGTCTGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F3679-ACAAGGACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGGACATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F3680-GACCTACTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACCTACTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F3681-GAACATGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACATGTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F3682-TCAACGTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACGTCCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F3683-TCACCAACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACCAACGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F3684-CAAGTTGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTTGCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F3685-ATCGACATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGACATCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F3686-GCTTCAACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTCAACCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F3687-ACACTTGCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTTGCAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F3688-GTCTCTTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCTTCCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F3689-TAGGACGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGACGACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F3690-ATGAGCTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAGCTTCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F3691-AACTCATCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCATCCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F3692-CGTACAGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTACAGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F3693-TGTCTTCAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTTCAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F3694-TCAGCTAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCTAGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F3695-TGTGTCCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTCCAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F3696-ACTGTCAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGTCAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F3697-GACTTCGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTTCGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F3698-TAGTACCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTACCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F3699-CTTCAAGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAAGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F3700-TAGCTGCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTGCAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F3701-GGTAGAACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGAACTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F3702-AGCAACATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAACATCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F3703-ATGACCTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGACCTAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F3704-AGACACATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACACATCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F3705-AACCATGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCATGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F3706-AGTGCAAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCAAGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F3707-GAGCTCACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGCTCACTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F3708-TTCGTAGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTAGTCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F3709-TAGGTTGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTTGGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3710-GTTGTGGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTGGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F3711-TACCACACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCACACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F3712-ACGATGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGATGTACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F3713-AACCAACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCAACAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F3714-CATCCTTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCCTTGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F3715-CTGATGAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGATGAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F3716-GAACAGCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACAGCTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F3717-TACAGTCACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGTCACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F3718-CCACAGAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCACAGAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F3719-AGTTGAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGAGACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F3720-AGAGGTTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGGTTGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F3721-AAGCAGAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAGAAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F3722-TGACATGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACATGTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F3723-TCGAACCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGAACCTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F3724-TAGAGCACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGCACAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F3725-CTACGACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACGACACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F3726-TCAGAAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAAGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F3727-GTCAGATGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGATGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F3728-AACAGCTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGCTCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F3729-GATCCAACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCCAACGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F3730-TTCTGTGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGTGCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F3731-GAAGAGACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGACACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F3732-GTAGGATCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGATCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F3733-ATGGTGAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGTGAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F3734-GACATCACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACATCACAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>F3735-CTACGTAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACGTAGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>F3736-GTCTAGCACT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACGTCTAGCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>F3651-TCAACGATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACGATGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>F3652-ACTGCAACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGCAACTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>F3653-GAACTTGCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTTGCTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>F3654-CGTCCAAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCCAAGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>F3655-GTCAACAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAACAAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>F3656-TCCTCATCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCATCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>F3657-CACAACTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACAACTGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>F3658-GGTCATGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTCATGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>F3659-CAACCTAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACCTAGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>F3660-CTCAGAACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGAACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>F3661-GATGAACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGAACGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>F3662-AGGAACTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAACTACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F3663-TCCTACGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTACGAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>F3664-GAAGAGACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F3665-TAGGAAGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGAAGAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>F3666-TGGACCAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGACCAAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F3667-AGACCAAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACCAAGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F3668-CGATGCACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATGCACAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F3669-TTGTAGCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTAGCTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F3670-ACAGATCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGATCCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F3671-ACATGCAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGCAGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F3672-TCTGAGAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAGAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F3673-TCTGGAAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGGAAGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F3674-AGTGCTGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCTGTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F3675-AGTACCAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTACCAACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F3676-ACCTAGTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTAGTGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F3677-ACACCTCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACCTCTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F3678-GGTTGCAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGCAACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F3679-TAGACACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACACTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F3680-ACTTGAGGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTGAGGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F3681-AACAGAAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGAAGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F3682-TTCGTACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTACAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F3683-GTAGTGCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTGCATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F3684-GCTACTACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTACTACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F3685-GAGTACCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTACCAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F3686-TTCTCCTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCCTGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F3687-CTTCAGACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAGACTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F3688-TGCACCTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCACCTTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F3689-CAACTAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTAGCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F3690-TCAGTCAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTCAACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F3691-AGGATCATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGATCATCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F3692-ACATGAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGAGTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F3693-AGGTACTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTACTGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F3694-AGCAGTTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGTTGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F3695-CTACACGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACACGTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F3696-ACAAGATGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGATGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F3697-TCGTACTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTACTGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F3698-AAGGAGTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGAGTCCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F3699-GGTTGAGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGAGTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F3700-CTCTCGTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCGTGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F3701-TACCAGCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCAGCAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F3702-CAGTTCACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTTCACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F3703-ACAAGTGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGTGCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F3704-GTGCAGTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGCAGTACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F3705-TGTACCTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTACCTTGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F3706-TCACTCGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F3707-TGTAGTTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGTTGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F3708-ACGAAGTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAAGTCTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F3709-AGAACATCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACATCCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3710-AGTAGTTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGTTGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F3711-AACACAACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACAACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F3712-CTACAGTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACAGTACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F3713-AAGACCTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACCTCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F3714-AGTCAGTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAGTCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F3715-TTCTCACAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCACAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F3716-GTCACACTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACACTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F3717-GCAGAACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAGAACCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F3718-CATGCTCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGCTCTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F3719-CAGTACGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTACGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F3720-CCAGTCTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAGTCTTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F3721-ACTTCAGGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTCAGGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F3722-TACCAGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCAGTTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F3723-AACAGACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGACACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F3724-GTCTTGTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTGTCTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F3725-GCTAGTGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGTGAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F3726-ACTCCACATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCCACATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F3727-ACAACACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACACTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F3728-AACGTGACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTGACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F3729-AAGTCATGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCATGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F3730-AACATCCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACATCCATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F3731-TACTCACTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCACTGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F3732-TCTCAGCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAGCTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F3733-TCGTAGTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTAGTGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F3734-CTGCAGAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGCAGAACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F3735-AAGACTTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTTGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>F3736-CACTAGTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTAGTGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F3737-ATCGTGACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTGACTATCGTCGGCAGCGTC</t>
+    <t>F3737-TCACCAGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACCAGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F3738-GTAGTCAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTCAGCTTCGTCGGCAGCGTC</t>
+    <t>F3738-AAGGTTGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTTGACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F3739-GGTGATCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTGATCTTCTCGTCGGCAGCGTC</t>
+    <t>F3739-GCACTTGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCACTTGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F3740-TCATGATGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATGATGGATCGTCGGCAGCGTC</t>
+    <t>F3740-ATGACCTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGACCTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F3741-TTGCTACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTACGATTCGTCGGCAGCGTC</t>
+    <t>F3741-GCTTGCAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGCAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F3742-CTGTTGTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTTGTCCTTCGTCGGCAGCGTC</t>
+    <t>F3742-CTCAGACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGACAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F3743-TGAGTTCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTTCATCTCGTCGGCAGCGTC</t>
+    <t>F3743-TCGATCTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGATCTTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F3744-GTACCTGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACCTGACATCGTCGGCAGCGTC</t>
+    <t>F3744-TGTGATCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGATCTGATCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
